--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:14:10+00:00</t>
+    <t>2024-04-07T12:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,19 +54,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
